--- a/case/testcase.xlsx
+++ b/case/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="14440"/>
+    <workbookView windowWidth="27920" windowHeight="14440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>登录</t>
-  </si>
-  <si>
-    <t>"0"</t>
   </si>
   <si>
     <t>{
@@ -113,15 +110,6 @@
 "success": "0",
 "assert":{"login": ""}
 }</t>
-  </si>
-  <si>
-    <t>是否需要退出（0：否；1：是；退出会清楚app数据）</t>
-  </si>
-  <si>
-    <t>用例和参数</t>
-  </si>
-  <si>
-    <t>预期(0：判断“XXX”不存在；1：判断“XXX存在”)</t>
   </si>
   <si>
     <t>edit_nickname</t>
@@ -151,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -166,17 +154,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,21 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -211,13 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -226,22 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -250,52 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +251,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,19 +325,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,151 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,8 +525,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,21 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,21 +581,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,8 +599,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,171 +624,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1133,136 +1127,136 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.2596153846154" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5384615384615" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.9038461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.3846153846154" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.3942307692308" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.2596153846154" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.5384615384615" style="7" customWidth="1"/>
+    <col min="3" max="3" width="39.9038461538462" style="7" customWidth="1"/>
+    <col min="4" max="4" width="34.3846153846154" style="8" customWidth="1"/>
+    <col min="5" max="5" width="43.3942307692308" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="84" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
+      <c r="E4" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
+      <c r="E5" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="84" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1276,8 +1270,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1297,30 +1291,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="135" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
